--- a/biology/Microbiologie/Protohallidae/Protohallidae.xlsx
+++ b/biology/Microbiologie/Protohallidae/Protohallidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Protohallidae ou Protohalliidae sont une famille de chromistes de l'embranchement des Ciliophora, de la classe des Gymnostomatea  et de l’ordre des Haptorida[note 1].
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Protohallia, de proto-, premier, et -hallia, par allusion au genre Hallia, premier nom que donnèrent da Cunha et Muniz à cet organisme.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Corliss décrit ainsi l'unique espèce de cette famille « Corps petit, ovoïde, avec disque apical et papille anale postérieure ; ciliature orale courte, peu visible ; ciliation somatique uniforme ; appareil cytopharyngé proéminent, très près de l'extrémité antérieure du corps. Ce protozoaire est omnivore et endocommensal chez les capybaras (grand cochon d'eau)[1] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Corliss décrit ainsi l'unique espèce de cette famille « Corps petit, ovoïde, avec disque apical et papille anale postérieure ; ciliature orale courte, peu visible ; ciliation somatique uniforme ; appareil cytopharyngé proéminent, très près de l'extrémité antérieure du corps. Ce protozoaire est omnivore et endocommensal chez les capybaras (grand cochon d'eau) ».
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Protohallia décrit par da Cunha et Muniz est un parasite,  endocommensal,  du Grand cochon d'eau ou capybara Hydrochoerus hydrochaeris, le plus gros rongeur actuel[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Protohallia décrit par da Cunha et Muniz est un parasite,  endocommensal,  du Grand cochon d'eau ou capybara Hydrochoerus hydrochaeris, le plus gros rongeur actuel.
 </t>
         </is>
       </c>
@@ -605,13 +623,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (29 décembre 2022)[3] : aucun genre
-Selon The Taxonomicon  (29 décembre 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (29 décembre 2022) : aucun genre
+Selon The Taxonomicon  (29 décembre 2022) :
 Protohallia da Cunha &amp; Muniz, 1927
 Espèce unique : Protohallia uncinata (da Cunha &amp; Muniz, 1925) da Cunha &amp; Muniz, 1927
-Cependant en 2018, une seconde espèce Protohallia nana a été décrite par Fran Cedrola et ses collaborateurs[5].
+Cependant en 2018, une seconde espèce Protohallia nana a été décrite par Fran Cedrola et ses collaborateurs.
 </t>
         </is>
       </c>
@@ -640,11 +660,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Protohallidae a été créée en 1927 par Aristides Marques da Cunha (d) (1887-1949) et Julio Muniz (d) (?-?)[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Protohallidae a été créée en 1927 par Aristides Marques da Cunha (d) (1887-1949) et Julio Muniz (d) (?-?).
 D'après Erna Aescht, Protohallia est synonyme de Hallia, premier nom que da Cunha et Muniz donnèrent à cet organisme en 1927, lequel se substituait à Rhipidostoma Cunha &amp; Muniz, 1925. 
-Or Hallia avait déjà été attribué respectivement à une plante Hallia Thunberg, 1799 et à un invertébré Hallia Milne-Edwards &amp; Haime, 1850[7],[8].
+Or Hallia avait déjà été attribué respectivement à une plante Hallia Thunberg, 1799 et à un invertébré Hallia Milne-Edwards &amp; Haime, 1850,.
 </t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cunha A.M. da &amp; Muniz J. (1927). Ciliés parasites de mammifères du Brésil. — C. r. Seanc. Soc. Biol. 97: 825-827.
 </t>
